--- a/runs/run411/NotionalETEOutput411.xlsx
+++ b/runs/run411/NotionalETEOutput411.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX0_State_Update</t>
+    <t>Missile_SOMERSAULT0_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX0_162.MISSILE_ANGERMAX0_162</t>
+    <t>MISSILE_SOMERSAULT0_483.MISSILE_SOMERSAULT0_483</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX0</t>
+    <t>MISSILE_SOMERSAULT0</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1475.469469453174</v>
+        <v>-1488.187376121979</v>
       </c>
       <c r="J2">
-        <v>2090.10774923711</v>
+        <v>2014.718941864408</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1502.6944633783</v>
+        <v>-1458.962691516156</v>
       </c>
       <c r="J3">
-        <v>2026.208459057258</v>
+        <v>1986.491197842911</v>
       </c>
       <c r="K3">
-        <v>295.564830170308</v>
+        <v>291.946747081427</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1506.894462708532</v>
+        <v>-1383.803678318802</v>
       </c>
       <c r="J4">
-        <v>1987.574037614244</v>
+        <v>1862.126722376765</v>
       </c>
       <c r="K4">
-        <v>596.8346550969693</v>
+        <v>621.9854838174325</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1423.755767903653</v>
+        <v>-1358.516500749744</v>
       </c>
       <c r="J5">
-        <v>1770.522360932973</v>
+        <v>1813.503007832288</v>
       </c>
       <c r="K5">
-        <v>874.909530659821</v>
+        <v>860.9030619445274</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1407.495359612641</v>
+        <v>-1337.243622845136</v>
       </c>
       <c r="J6">
-        <v>1827.048006481989</v>
+        <v>1719.275121211949</v>
       </c>
       <c r="K6">
-        <v>1177.79887844239</v>
+        <v>1120.575352632141</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1309.820312999624</v>
+        <v>-1305.657275723087</v>
       </c>
       <c r="J7">
-        <v>1718.669138143124</v>
+        <v>1689.439841470898</v>
       </c>
       <c r="K7">
-        <v>1364.367603458789</v>
+        <v>1338.192266193563</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1306.801204137451</v>
+        <v>-1328.644741560474</v>
       </c>
       <c r="J8">
-        <v>1775.28726418954</v>
+        <v>1635.768343544139</v>
       </c>
       <c r="K8">
-        <v>1533.47370470082</v>
+        <v>1640.391161021229</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-103.5201615914395</v>
+        <v>-99.70287901013417</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1272.653331197075</v>
+        <v>-1277.306618139479</v>
       </c>
       <c r="J9">
-        <v>1595.91781044129</v>
+        <v>1674.428913517858</v>
       </c>
       <c r="K9">
-        <v>1892.914423214182</v>
+        <v>1806.299907493227</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>215.5907205914537</v>
+        <v>219.8607349207309</v>
       </c>
       <c r="G10">
-        <v>-87.22140262592133</v>
+        <v>-85.62233425267276</v>
       </c>
       <c r="H10">
-        <v>852.4239654403544</v>
+        <v>820.8308778933463</v>
       </c>
       <c r="I10">
-        <v>-1248.575400966647</v>
+        <v>-1201.162691241816</v>
       </c>
       <c r="J10">
-        <v>1632.749123685761</v>
+        <v>1602.5364742</v>
       </c>
       <c r="K10">
-        <v>2024.955825575153</v>
+        <v>1929.334624251152</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>163.4969755955134</v>
+        <v>172.809822000017</v>
       </c>
       <c r="G11">
-        <v>-68.82618251663891</v>
+        <v>-68.80659561614569</v>
       </c>
       <c r="H11">
-        <v>1032.496474497961</v>
+        <v>1092.115653088592</v>
       </c>
       <c r="I11">
-        <v>-1168.861456633567</v>
+        <v>-1176.571577215934</v>
       </c>
       <c r="J11">
-        <v>1575.454590320914</v>
+        <v>1499.17795444496</v>
       </c>
       <c r="K11">
-        <v>2190.575983782675</v>
+        <v>2220.668115657714</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>133.6978682014725</v>
+        <v>142.613253173981</v>
       </c>
       <c r="G12">
-        <v>-50.48765622972194</v>
+        <v>-48.39154937220796</v>
       </c>
       <c r="H12">
-        <v>1165.670756991191</v>
+        <v>1205.198778277763</v>
       </c>
       <c r="I12">
-        <v>-1195.065122617496</v>
+        <v>-1159.571988082017</v>
       </c>
       <c r="J12">
-        <v>1509.630550581863</v>
+        <v>1465.01278998761</v>
       </c>
       <c r="K12">
-        <v>2387.137532212143</v>
+        <v>2282.929888346826</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>119.3783856939586</v>
+        <v>122.2657606914757</v>
       </c>
       <c r="G13">
-        <v>-33.26217438517933</v>
+        <v>-34.391175816343</v>
       </c>
       <c r="H13">
-        <v>1249.10907501038</v>
+        <v>1296.053791610309</v>
       </c>
       <c r="I13">
-        <v>-1186.370559141476</v>
+        <v>-1161.510138575355</v>
       </c>
       <c r="J13">
-        <v>1535.520758175171</v>
+        <v>1469.298455299751</v>
       </c>
       <c r="K13">
-        <v>2422.187900940029</v>
+        <v>2520.390009263179</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>109.9504929659207</v>
+        <v>108.5984685504676</v>
       </c>
       <c r="G14">
-        <v>-17.13696521154925</v>
+        <v>-16.57147616260961</v>
       </c>
       <c r="H14">
-        <v>1265.61402475451</v>
+        <v>1359.382367391783</v>
       </c>
       <c r="I14">
-        <v>-1135.760415001339</v>
+        <v>-1076.07561061412</v>
       </c>
       <c r="J14">
-        <v>1377.880179578314</v>
+        <v>1473.530137339713</v>
       </c>
       <c r="K14">
-        <v>2529.521380963478</v>
+        <v>2657.692979970859</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>101.7014070001518</v>
+        <v>98.73257238470875</v>
       </c>
       <c r="G15">
-        <v>-0.903128022185079</v>
+        <v>-0.9554217177583547</v>
       </c>
       <c r="H15">
-        <v>1366.872795999139</v>
+        <v>1419.385554783928</v>
       </c>
       <c r="I15">
-        <v>-1037.233161759466</v>
+        <v>-1074.988341116313</v>
       </c>
       <c r="J15">
-        <v>1429.790895768879</v>
+        <v>1340.757405531998</v>
       </c>
       <c r="K15">
-        <v>2691.31543611024</v>
+        <v>2742.652203382974</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>90.42441473635368</v>
+        <v>96.6256294785688</v>
       </c>
       <c r="G16">
-        <v>15.9236299159959</v>
+        <v>15.45317280549865</v>
       </c>
       <c r="H16">
-        <v>1444.056948889518</v>
+        <v>1430.649173800095</v>
       </c>
       <c r="I16">
-        <v>-1045.30285428294</v>
+        <v>-982.4801497550699</v>
       </c>
       <c r="J16">
-        <v>1267.37672126557</v>
+        <v>1315.758665529678</v>
       </c>
       <c r="K16">
-        <v>2827.408023796014</v>
+        <v>2851.30854059562</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>89.51901023201343</v>
+        <v>87.61594941013695</v>
       </c>
       <c r="G17">
-        <v>33.52092002251639</v>
+        <v>32.61690862214675</v>
       </c>
       <c r="H17">
-        <v>1490.324995713406</v>
+        <v>1457.698122519178</v>
       </c>
       <c r="I17">
-        <v>-1004.004880032749</v>
+        <v>-930.7603537503805</v>
       </c>
       <c r="J17">
-        <v>1251.987836909062</v>
+        <v>1216.863444471801</v>
       </c>
       <c r="K17">
-        <v>2913.538014780325</v>
+        <v>3025.123047308424</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>85.39883671229393</v>
+        <v>82.98104708660736</v>
       </c>
       <c r="G18">
-        <v>50.55740739990543</v>
+        <v>50.16525299453778</v>
       </c>
       <c r="H18">
-        <v>1566.823668975167</v>
+        <v>1442.065932672876</v>
       </c>
       <c r="I18">
-        <v>-938.3951436905845</v>
+        <v>-933.6956507845271</v>
       </c>
       <c r="J18">
-        <v>1167.280873824371</v>
+        <v>1207.022884771173</v>
       </c>
       <c r="K18">
-        <v>3111.644785530862</v>
+        <v>3064.766293626712</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>79.56426354267532</v>
+        <v>76.21823485416705</v>
       </c>
       <c r="G19">
-        <v>64.73688772274664</v>
+        <v>65.37379101965664</v>
       </c>
       <c r="H19">
-        <v>1591.538025174224</v>
+        <v>1566.186075585927</v>
       </c>
       <c r="I19">
-        <v>-863.2898886264935</v>
+        <v>-884.433931739545</v>
       </c>
       <c r="J19">
-        <v>1211.59871421227</v>
+        <v>1169.043028222369</v>
       </c>
       <c r="K19">
-        <v>3037.963556859869</v>
+        <v>2997.644803930127</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>72.96482098498967</v>
+        <v>77.41381878928755</v>
       </c>
       <c r="G20">
-        <v>83.36040186408582</v>
+        <v>84.64599442192696</v>
       </c>
       <c r="H20">
-        <v>1634.9923794472</v>
+        <v>1558.400650189051</v>
       </c>
       <c r="I20">
-        <v>-809.7680187738953</v>
+        <v>-830.3676532251612</v>
       </c>
       <c r="J20">
-        <v>1135.546719549193</v>
+        <v>1079.40051881622</v>
       </c>
       <c r="K20">
-        <v>3047.834630543041</v>
+        <v>3003.189617075524</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>70.94388395104941</v>
+        <v>72.21345595641449</v>
       </c>
       <c r="G21">
-        <v>101.6390537991796</v>
+        <v>98.51073496026149</v>
       </c>
       <c r="H21">
-        <v>1530.298089667682</v>
+        <v>1579.060784558653</v>
       </c>
       <c r="I21">
-        <v>-762.8530530255035</v>
+        <v>-773.9056637290032</v>
       </c>
       <c r="J21">
-        <v>1078.647393415759</v>
+        <v>1074.275936124327</v>
       </c>
       <c r="K21">
-        <v>3037.137244081845</v>
+        <v>3273.415743028708</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>67.52858253679636</v>
+        <v>65.74344868096028</v>
       </c>
       <c r="G22">
-        <v>110.2999106418344</v>
+        <v>116.3828474328752</v>
       </c>
       <c r="H22">
-        <v>1624.022686566875</v>
+        <v>1640.203332957315</v>
       </c>
       <c r="I22">
-        <v>-751.6281357288465</v>
+        <v>-778.7281202928004</v>
       </c>
       <c r="J22">
-        <v>1061.057069634952</v>
+        <v>1057.467581349181</v>
       </c>
       <c r="K22">
-        <v>3302.730634475903</v>
+        <v>3309.177622782123</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>64.58899697201058</v>
+        <v>65.43035669663718</v>
       </c>
       <c r="G23">
-        <v>128.595649818933</v>
+        <v>133.2154254982311</v>
       </c>
       <c r="H23">
-        <v>1675.199112933209</v>
+        <v>1668.421615454542</v>
       </c>
       <c r="I23">
-        <v>-672.572387291808</v>
+        <v>-674.0951787435188</v>
       </c>
       <c r="J23">
-        <v>940.3324831942552</v>
+        <v>958.9736025097792</v>
       </c>
       <c r="K23">
-        <v>3075.606516025149</v>
+        <v>3099.835715463404</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>64.42425383042581</v>
+        <v>63.93638714812847</v>
       </c>
       <c r="G24">
-        <v>152.6358902617703</v>
+        <v>141.2675175560371</v>
       </c>
       <c r="H24">
-        <v>1618.665526276651</v>
+        <v>1677.101842186001</v>
       </c>
       <c r="I24">
-        <v>-640.804274555206</v>
+        <v>-671.1688774271048</v>
       </c>
       <c r="J24">
-        <v>970.8579366527068</v>
+        <v>936.3991268823054</v>
       </c>
       <c r="K24">
-        <v>3307.407905502903</v>
+        <v>3152.44670381681</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.38506444337345</v>
+        <v>61.39545056556156</v>
       </c>
       <c r="G25">
-        <v>161.7486677026513</v>
+        <v>170.9703297848064</v>
       </c>
       <c r="H25">
-        <v>1722.700034782111</v>
+        <v>1728.279201010487</v>
       </c>
       <c r="I25">
-        <v>-624.9468339406048</v>
+        <v>-591.072789319858</v>
       </c>
       <c r="J25">
-        <v>895.9550289469078</v>
+        <v>841.9249262789501</v>
       </c>
       <c r="K25">
-        <v>3173.921821520688</v>
+        <v>3243.6791859401</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>57.43945615717804</v>
+        <v>61.19012622513684</v>
       </c>
       <c r="G26">
-        <v>184.355026983349</v>
+        <v>173.6874647027315</v>
       </c>
       <c r="H26">
-        <v>1639.651137002212</v>
+        <v>1619.286176726322</v>
       </c>
       <c r="I26">
-        <v>-560.1241948970113</v>
+        <v>-553.3613649774375</v>
       </c>
       <c r="J26">
-        <v>830.1326449530906</v>
+        <v>796.0731289075306</v>
       </c>
       <c r="K26">
-        <v>3114.940004745934</v>
+        <v>3152.939712942911</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>56.04780440016167</v>
+        <v>55.11117299821109</v>
       </c>
       <c r="G27">
-        <v>188.8363465132308</v>
+        <v>203.8532002879282</v>
       </c>
       <c r="H27">
-        <v>1643.098229433223</v>
+        <v>1762.088318506145</v>
       </c>
       <c r="I27">
-        <v>-502.266106775083</v>
+        <v>-505.1651795628876</v>
       </c>
       <c r="J27">
-        <v>777.2002962468671</v>
+        <v>815.1941876428249</v>
       </c>
       <c r="K27">
-        <v>3063.093860927485</v>
+        <v>2922.809791926252</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>57.43373323466017</v>
+        <v>58.73856664625256</v>
       </c>
       <c r="G28">
-        <v>215.3115915877572</v>
+        <v>222.0031349170906</v>
       </c>
       <c r="H28">
-        <v>1764.855895635119</v>
+        <v>1640.207024895216</v>
       </c>
       <c r="I28">
-        <v>-420.4452025495534</v>
+        <v>-423.4213369130101</v>
       </c>
       <c r="J28">
-        <v>749.252706460047</v>
+        <v>726.0994029865693</v>
       </c>
       <c r="K28">
-        <v>2914.277848956227</v>
+        <v>2877.95794595451</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>54.45449938271645</v>
+        <v>53.69241650167019</v>
       </c>
       <c r="G29">
-        <v>237.6244587262156</v>
+        <v>222.562471835865</v>
       </c>
       <c r="H29">
-        <v>1812.496118667381</v>
+        <v>1825.01890980493</v>
       </c>
       <c r="I29">
-        <v>-364.7728142885699</v>
+        <v>-382.4251634967503</v>
       </c>
       <c r="J29">
-        <v>688.353823118113</v>
+        <v>688.824027243744</v>
       </c>
       <c r="K29">
-        <v>2784.528711244225</v>
+        <v>2924.518159092432</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>51.11890300733283</v>
+        <v>56.0474201500416</v>
       </c>
       <c r="G30">
-        <v>238.0384557128199</v>
+        <v>251.9210085865363</v>
       </c>
       <c r="H30">
-        <v>1839.057523042512</v>
+        <v>1766.671719736403</v>
       </c>
       <c r="I30">
-        <v>-331.8685513247009</v>
+        <v>-323.1074146883466</v>
       </c>
       <c r="J30">
-        <v>624.2402877505926</v>
+        <v>661.933389599278</v>
       </c>
       <c r="K30">
-        <v>2899.535365948186</v>
+        <v>2751.90758359372</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>52.64312712986197</v>
+        <v>51.47952917622219</v>
       </c>
       <c r="G31">
-        <v>261.7045017547189</v>
+        <v>274.44765318543</v>
       </c>
       <c r="H31">
-        <v>1698.710781547753</v>
+        <v>1763.519406452484</v>
       </c>
       <c r="I31">
-        <v>-279.9570485455002</v>
+        <v>-264.7539944004315</v>
       </c>
       <c r="J31">
-        <v>580.6616125697284</v>
+        <v>569.697051755164</v>
       </c>
       <c r="K31">
-        <v>2586.918722389902</v>
+        <v>2649.982742295646</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>50.09060612910038</v>
+        <v>53.04326013463259</v>
       </c>
       <c r="G32">
-        <v>274.3297859493779</v>
+        <v>277.0175060422392</v>
       </c>
       <c r="H32">
-        <v>1797.590874331249</v>
+        <v>1770.421140632037</v>
       </c>
       <c r="I32">
-        <v>-208.3026808463778</v>
+        <v>-204.1099111313542</v>
       </c>
       <c r="J32">
-        <v>555.4623352255427</v>
+        <v>534.3401810637052</v>
       </c>
       <c r="K32">
-        <v>2648.524209743015</v>
+        <v>2503.169609027863</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>48.891010020072</v>
+        <v>49.75670978425082</v>
       </c>
       <c r="G33">
-        <v>303.6435960223492</v>
+        <v>303.3959375796833</v>
       </c>
       <c r="H33">
-        <v>1753.019680249775</v>
+        <v>1814.663221514076</v>
       </c>
       <c r="I33">
-        <v>-151.0203890166931</v>
+        <v>-148.6376050242969</v>
       </c>
       <c r="J33">
-        <v>472.5034976531107</v>
+        <v>511.4520726277567</v>
       </c>
       <c r="K33">
-        <v>2481.302950471616</v>
+        <v>2341.632230335207</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.13158096282019</v>
+        <v>47.20336658624646</v>
       </c>
       <c r="G34">
-        <v>304.6480133856696</v>
+        <v>322.1719668952329</v>
       </c>
       <c r="H34">
-        <v>1887.55973046161</v>
+        <v>1769.408818345638</v>
       </c>
       <c r="I34">
-        <v>-85.72405421886668</v>
+        <v>-81.23125182145138</v>
       </c>
       <c r="J34">
-        <v>449.3855661121417</v>
+        <v>442.2514613000128</v>
       </c>
       <c r="K34">
-        <v>2210.987887911129</v>
+        <v>2274.826365575296</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>47.22559786769593</v>
+        <v>48.65230259440676</v>
       </c>
       <c r="G35">
-        <v>315.0718226772276</v>
+        <v>326.6453980172075</v>
       </c>
       <c r="H35">
-        <v>1762.80541472293</v>
+        <v>1784.862189465094</v>
       </c>
       <c r="I35">
-        <v>-17.92534305679424</v>
+        <v>-17.81793188424145</v>
       </c>
       <c r="J35">
-        <v>393.3879011188075</v>
+        <v>387.098945624085</v>
       </c>
       <c r="K35">
-        <v>1932.640337182418</v>
+        <v>2023.99822391879</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.04903369185529</v>
+        <v>45.33423537357418</v>
       </c>
       <c r="G36">
-        <v>329.4178896626569</v>
+        <v>339.6832999401705</v>
       </c>
       <c r="H36">
-        <v>1895.456017780468</v>
+        <v>1840.494019170509</v>
       </c>
       <c r="I36">
-        <v>46.81988769394235</v>
+        <v>46.92819791051797</v>
       </c>
       <c r="J36">
-        <v>355.1980889431495</v>
+        <v>351.1577378755189</v>
       </c>
       <c r="K36">
-        <v>1916.260779249314</v>
+        <v>1857.434246755354</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.92493458752345</v>
+        <v>46.41551391851182</v>
       </c>
       <c r="G37">
-        <v>361.4519396680765</v>
+        <v>364.9947753594826</v>
       </c>
       <c r="H37">
-        <v>1750.595911836332</v>
+        <v>1893.84034066347</v>
       </c>
       <c r="I37">
-        <v>111.620750161963</v>
+        <v>111.0419735894637</v>
       </c>
       <c r="J37">
-        <v>284.8932344055192</v>
+        <v>298.5784559019033</v>
       </c>
       <c r="K37">
-        <v>1601.01411989657</v>
+        <v>1685.109848381139</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>45.75345931888536</v>
+        <v>43.89472759430855</v>
       </c>
       <c r="G38">
-        <v>387.7047082947702</v>
+        <v>369.2497677830151</v>
       </c>
       <c r="H38">
-        <v>1933.641688841648</v>
+        <v>1835.3418057301</v>
       </c>
       <c r="I38">
-        <v>178.0126325942625</v>
+        <v>185.7177730471354</v>
       </c>
       <c r="J38">
-        <v>259.0040003707639</v>
+        <v>244.0162490147215</v>
       </c>
       <c r="K38">
-        <v>1436.225764931614</v>
+        <v>1458.113247885324</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>42.95102425599465</v>
+        <v>45.79366151562997</v>
       </c>
       <c r="G39">
-        <v>406.4023222626942</v>
+        <v>400.6118726427318</v>
       </c>
       <c r="H39">
-        <v>1946.568006562651</v>
+        <v>1939.522205538326</v>
       </c>
       <c r="I39">
-        <v>262.4615456956111</v>
+        <v>248.4167297668735</v>
       </c>
       <c r="J39">
-        <v>198.9052704463082</v>
+        <v>205.2021363823568</v>
       </c>
       <c r="K39">
-        <v>1110.556999852704</v>
+        <v>1204.058239641911</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.94947639765183</v>
+        <v>45.01632539750986</v>
       </c>
       <c r="G40">
-        <v>397.2194274043374</v>
+        <v>399.8989728167469</v>
       </c>
       <c r="H40">
-        <v>1831.849255798122</v>
+        <v>1916.597125447317</v>
       </c>
       <c r="I40">
-        <v>323.0770332533903</v>
+        <v>320.780807000076</v>
       </c>
       <c r="J40">
-        <v>147.8368040534614</v>
+        <v>148.8489614553218</v>
       </c>
       <c r="K40">
-        <v>904.3110099941607</v>
+        <v>856.4962778603277</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>43.8987178430538</v>
+        <v>43.1194590562916</v>
       </c>
       <c r="G41">
-        <v>439.934345266087</v>
+        <v>415.0307301611584</v>
       </c>
       <c r="H41">
-        <v>1954.971756325781</v>
+        <v>1815.686825545242</v>
       </c>
       <c r="I41">
-        <v>413.3142220177074</v>
+        <v>406.1021009343121</v>
       </c>
       <c r="J41">
-        <v>106.7898112066731</v>
+        <v>103.3853696300005</v>
       </c>
       <c r="K41">
-        <v>617.5047730059313</v>
+        <v>624.9458038091457</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>44.77994427729481</v>
+        <v>41.32075981071941</v>
       </c>
       <c r="G42">
-        <v>466.4018247089598</v>
+        <v>426.0136494202264</v>
       </c>
       <c r="H42">
-        <v>1970.074827915284</v>
+        <v>1904.335527259543</v>
       </c>
       <c r="I42">
-        <v>493.8265443279496</v>
+        <v>479.5959090457259</v>
       </c>
       <c r="J42">
-        <v>53.00612778989561</v>
+        <v>54.32341564427939</v>
       </c>
       <c r="K42">
-        <v>331.3284840226972</v>
+        <v>323.9835205803859</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.11523545183332</v>
+        <v>43.47996795087654</v>
       </c>
       <c r="G43">
-        <v>475.1241802704919</v>
+        <v>442.6009296562201</v>
       </c>
       <c r="H43">
-        <v>1879.942831689034</v>
+        <v>1953.001102483883</v>
       </c>
       <c r="I43">
-        <v>573.0675149026432</v>
+        <v>566.6239036047878</v>
       </c>
       <c r="J43">
-        <v>5.0702077339504</v>
+        <v>5.488928735661151</v>
       </c>
       <c r="K43">
-        <v>33.06391454765006</v>
+        <v>34.06009343616282</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>43.36299687242251</v>
+        <v>40.94562468824417</v>
       </c>
       <c r="G44">
-        <v>486.4243431550501</v>
+        <v>489.411772432805</v>
       </c>
       <c r="H44">
-        <v>1837.945283779294</v>
+        <v>1947.063091367105</v>
       </c>
       <c r="I44">
-        <v>606.2529818933962</v>
+        <v>636.4431436925248</v>
       </c>
       <c r="J44">
-        <v>-42.28906844896689</v>
+        <v>-43.67762331375543</v>
       </c>
       <c r="K44">
-        <v>-279.4965105588877</v>
+        <v>-294.6140944231931</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.52973221724197</v>
+        <v>41.73452617104824</v>
       </c>
       <c r="G45">
-        <v>478.9025635267362</v>
+        <v>501.1046070273309</v>
       </c>
       <c r="H45">
-        <v>1972.118130148159</v>
+        <v>1979.297060818263</v>
       </c>
       <c r="I45">
-        <v>738.3880504449011</v>
+        <v>750.1368029498009</v>
       </c>
       <c r="J45">
-        <v>-90.15120023647093</v>
+        <v>-89.65932936491023</v>
       </c>
       <c r="K45">
-        <v>-644.6382043140163</v>
+        <v>-636.0134356777792</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>41.01983795324217</v>
+        <v>41.18238183860271</v>
       </c>
       <c r="G46">
-        <v>485.5616276959361</v>
+        <v>498.5847685645422</v>
       </c>
       <c r="H46">
-        <v>1969.262098772157</v>
+        <v>1922.857796482225</v>
       </c>
       <c r="I46">
-        <v>820.4068803616324</v>
+        <v>843.3803406581163</v>
       </c>
       <c r="J46">
-        <v>-145.8683888793449</v>
+        <v>-144.7306084260238</v>
       </c>
       <c r="K46">
-        <v>-980.5956955621098</v>
+        <v>-934.8539840432098</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>41.76729485199247</v>
+        <v>39.28710048864895</v>
       </c>
       <c r="G47">
-        <v>518.1352101551764</v>
+        <v>546.3198176924551</v>
       </c>
       <c r="H47">
-        <v>1845.970639572663</v>
+        <v>1928.524611685575</v>
       </c>
       <c r="I47">
-        <v>912.1422049708204</v>
+        <v>871.0890783203367</v>
       </c>
       <c r="J47">
-        <v>-188.4705832265116</v>
+        <v>-197.5202375928434</v>
       </c>
       <c r="K47">
-        <v>-1329.519258919821</v>
+        <v>-1320.308642105348</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>37.97629490108784</v>
+        <v>40.26048632285225</v>
       </c>
       <c r="G48">
-        <v>555.0044753938099</v>
+        <v>525.0432920951223</v>
       </c>
       <c r="H48">
-        <v>1896.913997093036</v>
+        <v>1999.368150065006</v>
       </c>
       <c r="I48">
-        <v>965.4112694548961</v>
+        <v>937.5629761952296</v>
       </c>
       <c r="J48">
-        <v>-241.1250428112436</v>
+        <v>-230.7184863423557</v>
       </c>
       <c r="K48">
-        <v>-1714.253766896246</v>
+        <v>-1624.015005743425</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.0919130512121</v>
+        <v>38.78668493468067</v>
       </c>
       <c r="G49">
-        <v>586.6658941551473</v>
+        <v>579.7729656889492</v>
       </c>
       <c r="H49">
-        <v>1909.752941845802</v>
+        <v>2011.869724684807</v>
       </c>
       <c r="I49">
-        <v>1050.399448098534</v>
+        <v>1041.903884631856</v>
       </c>
       <c r="J49">
-        <v>-277.3745689560673</v>
+        <v>-286.5924012552204</v>
       </c>
       <c r="K49">
-        <v>-2111.224979844457</v>
+        <v>-2035.383122055022</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>40.09503125141873</v>
+        <v>37.24819468668159</v>
       </c>
       <c r="G50">
-        <v>571.9267117247266</v>
+        <v>565.4069012708416</v>
       </c>
       <c r="H50">
-        <v>1969.309902101446</v>
+        <v>2028.657195179548</v>
       </c>
       <c r="I50">
-        <v>1132.148580952495</v>
+        <v>1174.518528183199</v>
       </c>
       <c r="J50">
-        <v>-327.8065503380483</v>
+        <v>-351.0271409980352</v>
       </c>
       <c r="K50">
-        <v>-2544.515956821628</v>
+        <v>-2419.494105330791</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>38.12471423801374</v>
+        <v>39.19548763951532</v>
       </c>
       <c r="G51">
-        <v>573.5386561568497</v>
+        <v>572.9968032726116</v>
       </c>
       <c r="H51">
-        <v>1893.664475772278</v>
+        <v>2007.51096999699</v>
       </c>
       <c r="I51">
-        <v>1206.798609661666</v>
+        <v>1225.333426596741</v>
       </c>
       <c r="J51">
-        <v>-397.1573366933761</v>
+        <v>-381.2560465638829</v>
       </c>
       <c r="K51">
-        <v>-2836.744533265802</v>
+        <v>-2959.13614268605</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.22450661866145</v>
+        <v>37.1860256930354</v>
       </c>
       <c r="G52">
-        <v>602.9103806053248</v>
+        <v>599.4978463573981</v>
       </c>
       <c r="H52">
-        <v>1934.529741946434</v>
+        <v>2017.081313792612</v>
       </c>
       <c r="I52">
-        <v>1353.599105557345</v>
+        <v>1420.091327655533</v>
       </c>
       <c r="J52">
-        <v>-443.1544945356476</v>
+        <v>-417.0774283043356</v>
       </c>
       <c r="K52">
-        <v>-3316.482976899831</v>
+        <v>-3229.726499237935</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>38.0530294369067</v>
+        <v>38.11565761909948</v>
       </c>
       <c r="G53">
-        <v>606.9998057482504</v>
+        <v>628.7481344014046</v>
       </c>
       <c r="H53">
-        <v>2023.379327570988</v>
+        <v>2006.412688830497</v>
       </c>
       <c r="I53">
-        <v>1491.059345784876</v>
+        <v>1434.336071297434</v>
       </c>
       <c r="J53">
-        <v>-483.7479988529768</v>
+        <v>-488.9423959231107</v>
       </c>
       <c r="K53">
-        <v>-3911.185497681449</v>
+        <v>-3984.582662140033</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.48337224486635</v>
+        <v>36.24063326113306</v>
       </c>
       <c r="G54">
-        <v>632.060552833522</v>
+        <v>664.8394533225037</v>
       </c>
       <c r="H54">
-        <v>1998.971465435873</v>
+        <v>2039.185956197141</v>
       </c>
       <c r="I54">
-        <v>1579.607355897897</v>
+        <v>1616.086050678533</v>
       </c>
       <c r="J54">
-        <v>-519.4596962686679</v>
+        <v>-527.4700780381784</v>
       </c>
       <c r="K54">
-        <v>-4198.666372836562</v>
+        <v>-4227.078440033823</v>
       </c>
     </row>
   </sheetData>
